--- a/meng-spad-quenching/active-quenching/aqc-rev2/aqc-rev2-bom.xlsx
+++ b/meng-spad-quenching/active-quenching/aqc-rev2/aqc-rev2-bom.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="aqc_rev2_bom" localSheetId="0">Sheet1!$A$1:$F$280</definedName>
+    <definedName name="aqc_rev2_bom" localSheetId="0">Sheet1!$A$1:$F$196</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="359">
   <si>
     <t>Part</t>
   </si>
@@ -68,15 +68,9 @@
     <t>C0603</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>1n</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>1300p</t>
   </si>
   <si>
@@ -101,45 +95,15 @@
     <t>CT7343</t>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>4.7u</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
     <t>4u7</t>
   </si>
   <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
     <t>C-EUC0402</t>
   </si>
   <si>
     <t>C0402</t>
   </si>
   <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
     <t>C25</t>
   </si>
   <si>
@@ -152,279 +116,27 @@
     <t>220p</t>
   </si>
   <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
     <t>470p</t>
   </si>
   <si>
-    <t>C29</t>
-  </si>
-  <si>
     <t>10p</t>
   </si>
   <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>C44</t>
-  </si>
-  <si>
-    <t>C45</t>
-  </si>
-  <si>
     <t>C46</t>
   </si>
   <si>
     <t>68u, 16V</t>
   </si>
   <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>C48</t>
-  </si>
-  <si>
-    <t>C49</t>
-  </si>
-  <si>
-    <t>C50</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>C52</t>
-  </si>
-  <si>
-    <t>C53</t>
-  </si>
-  <si>
-    <t>C54</t>
-  </si>
-  <si>
-    <t>C55</t>
-  </si>
-  <si>
-    <t>C56</t>
-  </si>
-  <si>
-    <t>C57</t>
-  </si>
-  <si>
-    <t>C58</t>
-  </si>
-  <si>
-    <t>C59</t>
-  </si>
-  <si>
-    <t>C60</t>
-  </si>
-  <si>
-    <t>10u, 10V</t>
-  </si>
-  <si>
-    <t>C61</t>
-  </si>
-  <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>C63</t>
-  </si>
-  <si>
-    <t>C64</t>
-  </si>
-  <si>
-    <t>C65</t>
-  </si>
-  <si>
-    <t>C66</t>
-  </si>
-  <si>
-    <t>C67</t>
-  </si>
-  <si>
     <t>C68</t>
   </si>
   <si>
-    <t>C69</t>
-  </si>
-  <si>
     <t>DNP</t>
   </si>
   <si>
-    <t>C70</t>
-  </si>
-  <si>
-    <t>C71</t>
-  </si>
-  <si>
-    <t>C72</t>
-  </si>
-  <si>
-    <t>C73</t>
-  </si>
-  <si>
-    <t>C74</t>
-  </si>
-  <si>
-    <t>C75</t>
-  </si>
-  <si>
-    <t>C76</t>
-  </si>
-  <si>
-    <t>C77</t>
-  </si>
-  <si>
-    <t>C78</t>
-  </si>
-  <si>
-    <t>C79</t>
-  </si>
-  <si>
-    <t>C80</t>
-  </si>
-  <si>
-    <t>C81</t>
-  </si>
-  <si>
-    <t>C82</t>
-  </si>
-  <si>
-    <t>C83</t>
-  </si>
-  <si>
-    <t>C84</t>
-  </si>
-  <si>
-    <t>C85</t>
-  </si>
-  <si>
-    <t>C86</t>
-  </si>
-  <si>
-    <t>C87</t>
-  </si>
-  <si>
-    <t>C88</t>
-  </si>
-  <si>
-    <t>C89</t>
-  </si>
-  <si>
-    <t>C90</t>
-  </si>
-  <si>
-    <t>C91</t>
-  </si>
-  <si>
-    <t>C92</t>
-  </si>
-  <si>
-    <t>C93</t>
-  </si>
-  <si>
-    <t>C94</t>
-  </si>
-  <si>
     <t>47p</t>
   </si>
   <si>
-    <t>C95</t>
-  </si>
-  <si>
-    <t>C96</t>
-  </si>
-  <si>
-    <t>C97</t>
-  </si>
-  <si>
-    <t>C98</t>
-  </si>
-  <si>
-    <t>C99</t>
-  </si>
-  <si>
-    <t>C100</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>C104</t>
-  </si>
-  <si>
-    <t>C105</t>
-  </si>
-  <si>
-    <t>C106</t>
-  </si>
-  <si>
-    <t>C107</t>
-  </si>
-  <si>
-    <t>C108</t>
-  </si>
-  <si>
-    <t>C109</t>
-  </si>
-  <si>
-    <t>C110</t>
-  </si>
-  <si>
-    <t>C111</t>
-  </si>
-  <si>
     <t>CDBA140SL-HF</t>
   </si>
   <si>
@@ -1352,18 +1064,6 @@
     <t>CSTCE_G15L/CSTCE_GH5L</t>
   </si>
   <si>
-    <t>C1, C2, C6, C7</t>
-  </si>
-  <si>
-    <t>C5, C8, C9, C10, C11</t>
-  </si>
-  <si>
-    <t>C12, C13</t>
-  </si>
-  <si>
-    <t>C14, C15</t>
-  </si>
-  <si>
     <t>IC1,  IC2</t>
   </si>
   <si>
@@ -1374,6 +1074,54 @@
   </si>
   <si>
     <t>33n</t>
+  </si>
+  <si>
+    <t>C4, C41</t>
+  </si>
+  <si>
+    <t>C12, C13, C44, C60</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>C16, C53, C61</t>
+  </si>
+  <si>
+    <t>C28, C65</t>
+  </si>
+  <si>
+    <t>C3, C36, C66</t>
+  </si>
+  <si>
+    <t>C69, C70</t>
+  </si>
+  <si>
+    <t>C29, C73</t>
+  </si>
+  <si>
+    <t>C14, C15, C30, C31, C83</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>C19, C27, C32, C34, C35, C37, C38, C48, C50, C54, C63, C75, C80, C86, C87, C89</t>
+  </si>
+  <si>
+    <t>C20, C21, C22, C23, C33, C39, C42, C47, C49, C51, C62, C74, C77, C88, C90, C93</t>
+  </si>
+  <si>
+    <t>C94, C97</t>
+  </si>
+  <si>
+    <t>C1, C2, C6, C7, C40, C45, C56, C57, C59, C72, C78, C101</t>
+  </si>
+  <si>
+    <t>C17, C76, C79, C81, C99, C105</t>
+  </si>
+  <si>
+    <t>C5, C8, C9, C10, C11, C18, C24, C43, C52, C55, C58, C64, C67, C71, C82, C84, C85, C91, C92, C95, C96, C98, C100, C102, C103, C104, C106, C107, C108, C109, C110, C111</t>
   </si>
 </sst>
 </file>
@@ -1695,21 +1443,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1722,55 +1470,58 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1779,54 +1530,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1835,12 +1586,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1849,3778 +1600,2605 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>442</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D63" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D64" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D68" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="B69" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D70" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D91" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C94" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D95" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D100" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D101" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D102" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="D103" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>441</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D104" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>440</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>439</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D106" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C107" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D110" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D111" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D114" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D115" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C117" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="B121" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D121" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D122" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="B123" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="D123" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="B124" t="s">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="D124" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="B125" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C125" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>179</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C126" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="D126" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D127" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="D128" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D129" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="B130" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D130" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C131" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="D131" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B132" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C132" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="D132" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="B133" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C134" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>195</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B135" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D135" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>228</v>
+      </c>
+      <c r="B136" t="s">
         <v>200</v>
       </c>
-      <c r="B136" t="s">
-        <v>192</v>
-      </c>
       <c r="C136" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D136" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C137" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="D137" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B138" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C138" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="D138" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="B139" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="D139" t="s">
-        <v>204</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>232</v>
+      </c>
+      <c r="B140" t="s">
+        <v>200</v>
       </c>
       <c r="C140" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
       </c>
       <c r="C141" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="D141" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>212</v>
+        <v>138</v>
       </c>
       <c r="D142" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C143" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B144" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C144" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="D144" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B145" t="s">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="D145" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="B146" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="D146" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C147" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D147" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="D148" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="C149" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="D149" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>227</v>
-      </c>
-      <c r="B150" t="s">
-        <v>221</v>
+        <v>246</v>
+      </c>
+      <c r="B150">
+        <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="D150" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>228</v>
-      </c>
-      <c r="B151" t="s">
-        <v>229</v>
+        <v>247</v>
+      </c>
+      <c r="B151">
+        <v>100</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B153" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="B154" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="C154" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="C156" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D156" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="B157" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C157" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D157" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B158" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C158" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D158" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B159" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C159" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D159" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="B160" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C160" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D160" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="B161" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D161" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C162" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B163" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C163" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D163" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B164" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B165" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C165" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D165" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="C166" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B167" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C167" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D167" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="B168" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="C168" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D168" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B169" t="s">
-        <v>82</v>
+        <v>270</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D169" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D170" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B171" t="s">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="D171" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="D172" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B173" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D173" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C174" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="D174" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="B175" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D175" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B176" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C176" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D176" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="B177" t="s">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="C177" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D177" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B178" t="s">
-        <v>82</v>
+        <v>298</v>
       </c>
       <c r="C178" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D178" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B179" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="C179" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D179" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="B180" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="C180" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D180" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B181" t="s">
-        <v>257</v>
+        <v>304</v>
       </c>
       <c r="C181" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D181" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="B182" t="s">
-        <v>82</v>
+        <v>306</v>
       </c>
       <c r="C182" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D182" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="B183" t="s">
+        <v>266</v>
+      </c>
+      <c r="C183" t="s">
         <v>267</v>
       </c>
-      <c r="C183" t="s">
-        <v>234</v>
-      </c>
       <c r="D183" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B184" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="C184" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D184" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="B185" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="C185" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="D185" t="s">
-        <v>190</v>
+        <v>312</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="B186" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="D186" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B187" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="C187" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="D187" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="B188" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D188" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="B189" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="C189" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D189" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="C190" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="D190" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="B191" t="s">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="C191" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D191" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="C192" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D192" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>325</v>
       </c>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="D193" t="s">
-        <v>190</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>332</v>
       </c>
       <c r="C194" t="s">
-        <v>234</v>
+        <v>320</v>
       </c>
       <c r="D194" t="s">
-        <v>190</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C195" t="s">
-        <v>234</v>
+        <v>334</v>
       </c>
       <c r="D195" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B196" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="C196" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="D196" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>298</v>
-      </c>
-      <c r="B197" t="s">
-        <v>260</v>
-      </c>
-      <c r="C197" t="s">
-        <v>234</v>
-      </c>
-      <c r="D197" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>299</v>
-      </c>
-      <c r="B198" t="s">
-        <v>267</v>
-      </c>
-      <c r="C198" t="s">
-        <v>234</v>
-      </c>
-      <c r="D198" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>300</v>
-      </c>
-      <c r="B199" t="s">
-        <v>301</v>
-      </c>
-      <c r="C199" t="s">
-        <v>234</v>
-      </c>
-      <c r="D199" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>302</v>
-      </c>
-      <c r="B200" t="s">
-        <v>260</v>
-      </c>
-      <c r="C200" t="s">
-        <v>234</v>
-      </c>
-      <c r="D200" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>303</v>
-      </c>
-      <c r="B201" t="s">
-        <v>260</v>
-      </c>
-      <c r="C201" t="s">
-        <v>234</v>
-      </c>
-      <c r="D201" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>304</v>
-      </c>
-      <c r="B202" t="s">
-        <v>286</v>
-      </c>
-      <c r="C202" t="s">
-        <v>234</v>
-      </c>
-      <c r="D202" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>305</v>
-      </c>
-      <c r="B203" t="s">
-        <v>267</v>
-      </c>
-      <c r="C203" t="s">
-        <v>234</v>
-      </c>
-      <c r="D203" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>306</v>
-      </c>
-      <c r="B204" t="s">
-        <v>267</v>
-      </c>
-      <c r="C204" t="s">
-        <v>234</v>
-      </c>
-      <c r="D204" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>307</v>
-      </c>
-      <c r="B205" t="s">
-        <v>308</v>
-      </c>
-      <c r="C205" t="s">
-        <v>234</v>
-      </c>
-      <c r="D205" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>309</v>
-      </c>
-      <c r="B206" t="s">
-        <v>267</v>
-      </c>
-      <c r="C206" t="s">
-        <v>234</v>
-      </c>
-      <c r="D206" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>310</v>
-      </c>
-      <c r="B207" t="s">
-        <v>286</v>
-      </c>
-      <c r="C207" t="s">
-        <v>234</v>
-      </c>
-      <c r="D207" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>311</v>
-      </c>
-      <c r="B208" t="s">
-        <v>82</v>
-      </c>
-      <c r="C208" t="s">
-        <v>234</v>
-      </c>
-      <c r="D208" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>312</v>
-      </c>
-      <c r="B209" t="s">
-        <v>260</v>
-      </c>
-      <c r="C209" t="s">
-        <v>234</v>
-      </c>
-      <c r="D209" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>313</v>
-      </c>
-      <c r="B210" t="s">
-        <v>260</v>
-      </c>
-      <c r="C210" t="s">
-        <v>234</v>
-      </c>
-      <c r="D210" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>314</v>
-      </c>
-      <c r="B211" t="s">
-        <v>239</v>
-      </c>
-      <c r="C211" t="s">
-        <v>234</v>
-      </c>
-      <c r="D211" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>315</v>
-      </c>
-      <c r="B212" t="s">
-        <v>267</v>
-      </c>
-      <c r="C212" t="s">
-        <v>234</v>
-      </c>
-      <c r="D212" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>316</v>
-      </c>
-      <c r="B213" t="s">
-        <v>290</v>
-      </c>
-      <c r="C213" t="s">
-        <v>234</v>
-      </c>
-      <c r="D213" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>317</v>
-      </c>
-      <c r="B214" t="s">
-        <v>260</v>
-      </c>
-      <c r="C214" t="s">
-        <v>234</v>
-      </c>
-      <c r="D214" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>318</v>
-      </c>
-      <c r="B215" t="s">
-        <v>286</v>
-      </c>
-      <c r="C215" t="s">
-        <v>234</v>
-      </c>
-      <c r="D215" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>319</v>
-      </c>
-      <c r="B216" t="s">
-        <v>286</v>
-      </c>
-      <c r="C216" t="s">
-        <v>234</v>
-      </c>
-      <c r="D216" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>320</v>
-      </c>
-      <c r="B217" t="s">
-        <v>321</v>
-      </c>
-      <c r="C217" t="s">
-        <v>234</v>
-      </c>
-      <c r="D217" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>322</v>
-      </c>
-      <c r="B218" t="s">
-        <v>296</v>
-      </c>
-      <c r="C218" t="s">
-        <v>234</v>
-      </c>
-      <c r="D218" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>323</v>
-      </c>
-      <c r="B219" t="s">
-        <v>286</v>
-      </c>
-      <c r="C219" t="s">
-        <v>234</v>
-      </c>
-      <c r="D219" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>324</v>
-      </c>
-      <c r="B220" t="s">
-        <v>296</v>
-      </c>
-      <c r="C220" t="s">
-        <v>234</v>
-      </c>
-      <c r="D220" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>325</v>
-      </c>
-      <c r="B221" t="s">
-        <v>296</v>
-      </c>
-      <c r="C221" t="s">
-        <v>234</v>
-      </c>
-      <c r="D221" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>326</v>
-      </c>
-      <c r="B222" t="s">
-        <v>286</v>
-      </c>
-      <c r="C222" t="s">
-        <v>234</v>
-      </c>
-      <c r="D222" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>327</v>
-      </c>
-      <c r="B223" t="s">
-        <v>286</v>
-      </c>
-      <c r="C223" t="s">
-        <v>234</v>
-      </c>
-      <c r="D223" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>328</v>
-      </c>
-      <c r="B224" t="s">
-        <v>296</v>
-      </c>
-      <c r="C224" t="s">
-        <v>234</v>
-      </c>
-      <c r="D224" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>329</v>
-      </c>
-      <c r="B225" t="s">
-        <v>82</v>
-      </c>
-      <c r="C225" t="s">
-        <v>234</v>
-      </c>
-      <c r="D225" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>330</v>
-      </c>
-      <c r="B226" t="s">
-        <v>82</v>
-      </c>
-      <c r="C226" t="s">
-        <v>234</v>
-      </c>
-      <c r="D226" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>331</v>
-      </c>
-      <c r="B227" t="s">
-        <v>332</v>
-      </c>
-      <c r="C227" t="s">
-        <v>273</v>
-      </c>
-      <c r="D227" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>333</v>
-      </c>
-      <c r="B228" t="s">
-        <v>332</v>
-      </c>
-      <c r="C228" t="s">
-        <v>273</v>
-      </c>
-      <c r="D228" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>334</v>
-      </c>
-      <c r="B229" t="s">
-        <v>239</v>
-      </c>
-      <c r="C229" t="s">
-        <v>234</v>
-      </c>
-      <c r="D229" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>335</v>
-      </c>
-      <c r="B230" t="s">
-        <v>82</v>
-      </c>
-      <c r="C230" t="s">
-        <v>234</v>
-      </c>
-      <c r="D230" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>336</v>
-      </c>
-      <c r="B231" t="s">
-        <v>337</v>
-      </c>
-      <c r="C231" t="s">
         <v>338</v>
-      </c>
-      <c r="D231" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>340</v>
-      </c>
-      <c r="B232" t="s">
-        <v>296</v>
-      </c>
-      <c r="C232" t="s">
-        <v>234</v>
-      </c>
-      <c r="D232" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>341</v>
-      </c>
-      <c r="B233" t="s">
-        <v>239</v>
-      </c>
-      <c r="C233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D233" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>342</v>
-      </c>
-      <c r="B234">
-        <v>100</v>
-      </c>
-      <c r="C234" t="s">
-        <v>234</v>
-      </c>
-      <c r="D234" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>343</v>
-      </c>
-      <c r="B235">
-        <v>100</v>
-      </c>
-      <c r="C235" t="s">
-        <v>234</v>
-      </c>
-      <c r="D235" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>344</v>
-      </c>
-      <c r="B236" t="s">
-        <v>345</v>
-      </c>
-      <c r="C236" t="s">
-        <v>346</v>
-      </c>
-      <c r="D236" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>348</v>
-      </c>
-      <c r="B237" t="s">
-        <v>345</v>
-      </c>
-      <c r="C237" t="s">
-        <v>346</v>
-      </c>
-      <c r="D237" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>349</v>
-      </c>
-      <c r="B238" t="s">
-        <v>350</v>
-      </c>
-      <c r="C238" t="s">
-        <v>351</v>
-      </c>
-      <c r="D238" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>352</v>
-      </c>
-      <c r="B239" t="s">
-        <v>353</v>
-      </c>
-      <c r="C239" t="s">
-        <v>354</v>
-      </c>
-      <c r="D239" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>355</v>
-      </c>
-      <c r="B240" t="s">
-        <v>353</v>
-      </c>
-      <c r="C240" t="s">
-        <v>354</v>
-      </c>
-      <c r="D240" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>356</v>
-      </c>
-      <c r="B241" t="s">
-        <v>353</v>
-      </c>
-      <c r="C241" t="s">
-        <v>354</v>
-      </c>
-      <c r="D241" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>357</v>
-      </c>
-      <c r="B242" t="s">
-        <v>353</v>
-      </c>
-      <c r="C242" t="s">
-        <v>354</v>
-      </c>
-      <c r="D242" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>358</v>
-      </c>
-      <c r="B243" t="s">
-        <v>353</v>
-      </c>
-      <c r="C243" t="s">
-        <v>354</v>
-      </c>
-      <c r="D243" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>359</v>
-      </c>
-      <c r="B244" t="s">
-        <v>353</v>
-      </c>
-      <c r="C244" t="s">
-        <v>354</v>
-      </c>
-      <c r="D244" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>360</v>
-      </c>
-      <c r="B245" t="s">
-        <v>353</v>
-      </c>
-      <c r="C245" t="s">
-        <v>354</v>
-      </c>
-      <c r="D245" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>361</v>
-      </c>
-      <c r="B246" t="s">
-        <v>362</v>
-      </c>
-      <c r="C246" t="s">
-        <v>363</v>
-      </c>
-      <c r="D246" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>365</v>
-      </c>
-      <c r="B247" t="s">
-        <v>366</v>
-      </c>
-      <c r="C247" t="s">
-        <v>366</v>
-      </c>
-      <c r="D247" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>368</v>
-      </c>
-      <c r="B248" t="s">
-        <v>369</v>
-      </c>
-      <c r="C248" t="s">
-        <v>369</v>
-      </c>
-      <c r="D248" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>371</v>
-      </c>
-      <c r="B249" t="s">
-        <v>366</v>
-      </c>
-      <c r="C249" t="s">
-        <v>366</v>
-      </c>
-      <c r="D249" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>372</v>
-      </c>
-      <c r="B250" t="s">
-        <v>366</v>
-      </c>
-      <c r="C250" t="s">
-        <v>366</v>
-      </c>
-      <c r="D250" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>373</v>
-      </c>
-      <c r="B251" t="s">
-        <v>374</v>
-      </c>
-      <c r="C251" t="s">
-        <v>363</v>
-      </c>
-      <c r="D251" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>375</v>
-      </c>
-      <c r="B252" t="s">
-        <v>369</v>
-      </c>
-      <c r="C252" t="s">
-        <v>369</v>
-      </c>
-      <c r="D252" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>376</v>
-      </c>
-      <c r="B253" t="s">
-        <v>366</v>
-      </c>
-      <c r="C253" t="s">
-        <v>366</v>
-      </c>
-      <c r="D253" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>377</v>
-      </c>
-      <c r="B254" t="s">
-        <v>369</v>
-      </c>
-      <c r="C254" t="s">
-        <v>369</v>
-      </c>
-      <c r="D254" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>378</v>
-      </c>
-      <c r="B255" t="s">
-        <v>379</v>
-      </c>
-      <c r="C255" t="s">
-        <v>380</v>
-      </c>
-      <c r="D255" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>382</v>
-      </c>
-      <c r="B256" t="s">
-        <v>383</v>
-      </c>
-      <c r="C256" t="s">
-        <v>383</v>
-      </c>
-      <c r="D256" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>385</v>
-      </c>
-      <c r="B257" t="s">
-        <v>369</v>
-      </c>
-      <c r="C257" t="s">
-        <v>369</v>
-      </c>
-      <c r="D257" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>386</v>
-      </c>
-      <c r="B258" t="s">
-        <v>383</v>
-      </c>
-      <c r="C258" t="s">
-        <v>383</v>
-      </c>
-      <c r="D258" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>387</v>
-      </c>
-      <c r="B259" t="s">
-        <v>388</v>
-      </c>
-      <c r="C259" t="s">
-        <v>363</v>
-      </c>
-      <c r="D259" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>389</v>
-      </c>
-      <c r="B260" t="s">
-        <v>390</v>
-      </c>
-      <c r="C260" t="s">
-        <v>363</v>
-      </c>
-      <c r="D260" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>391</v>
-      </c>
-      <c r="B261" t="s">
-        <v>392</v>
-      </c>
-      <c r="C261" t="s">
-        <v>363</v>
-      </c>
-      <c r="D261" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>393</v>
-      </c>
-      <c r="B262" t="s">
-        <v>394</v>
-      </c>
-      <c r="C262" t="s">
-        <v>363</v>
-      </c>
-      <c r="D262" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>395</v>
-      </c>
-      <c r="B263" t="s">
-        <v>396</v>
-      </c>
-      <c r="C263" t="s">
-        <v>363</v>
-      </c>
-      <c r="D263" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>397</v>
-      </c>
-      <c r="B264" t="s">
-        <v>398</v>
-      </c>
-      <c r="C264" t="s">
-        <v>363</v>
-      </c>
-      <c r="D264" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>399</v>
-      </c>
-      <c r="B265" t="s">
-        <v>400</v>
-      </c>
-      <c r="C265" t="s">
-        <v>363</v>
-      </c>
-      <c r="D265" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>401</v>
-      </c>
-      <c r="B266" t="s">
-        <v>402</v>
-      </c>
-      <c r="C266" t="s">
-        <v>363</v>
-      </c>
-      <c r="D266" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>403</v>
-      </c>
-      <c r="B267" t="s">
-        <v>362</v>
-      </c>
-      <c r="C267" t="s">
-        <v>363</v>
-      </c>
-      <c r="D267" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>404</v>
-      </c>
-      <c r="B268" t="s">
-        <v>366</v>
-      </c>
-      <c r="C268" t="s">
-        <v>366</v>
-      </c>
-      <c r="D268" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>405</v>
-      </c>
-      <c r="B269" t="s">
-        <v>406</v>
-      </c>
-      <c r="C269" t="s">
-        <v>407</v>
-      </c>
-      <c r="D269" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>409</v>
-      </c>
-      <c r="B270" t="s">
-        <v>410</v>
-      </c>
-      <c r="C270" t="s">
-        <v>410</v>
-      </c>
-      <c r="D270" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>412</v>
-      </c>
-      <c r="B271" t="s">
-        <v>413</v>
-      </c>
-      <c r="C271" t="s">
-        <v>413</v>
-      </c>
-      <c r="D271" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>414</v>
-      </c>
-      <c r="B272" t="s">
-        <v>415</v>
-      </c>
-      <c r="C272" t="s">
-        <v>416</v>
-      </c>
-      <c r="D272" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>418</v>
-      </c>
-      <c r="B273" t="s">
-        <v>419</v>
-      </c>
-      <c r="C273" t="s">
-        <v>416</v>
-      </c>
-      <c r="D273" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>420</v>
-      </c>
-      <c r="B274" t="s">
-        <v>421</v>
-      </c>
-      <c r="C274" t="s">
-        <v>421</v>
-      </c>
-      <c r="D274" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>422</v>
-      </c>
-      <c r="B275" t="s">
-        <v>423</v>
-      </c>
-      <c r="C275" t="s">
-        <v>416</v>
-      </c>
-      <c r="D275" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>424</v>
-      </c>
-      <c r="B276" t="s">
-        <v>425</v>
-      </c>
-      <c r="C276" t="s">
-        <v>416</v>
-      </c>
-      <c r="D276" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>426</v>
-      </c>
-      <c r="B277" t="s">
-        <v>421</v>
-      </c>
-      <c r="C277" t="s">
-        <v>421</v>
-      </c>
-      <c r="D277" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>427</v>
-      </c>
-      <c r="B278" t="s">
-        <v>428</v>
-      </c>
-      <c r="C278" t="s">
-        <v>416</v>
-      </c>
-      <c r="D278" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>429</v>
-      </c>
-      <c r="B279" t="s">
-        <v>430</v>
-      </c>
-      <c r="C279" t="s">
-        <v>430</v>
-      </c>
-      <c r="D279" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>431</v>
-      </c>
-      <c r="B280" t="s">
-        <v>432</v>
-      </c>
-      <c r="C280" t="s">
-        <v>433</v>
-      </c>
-      <c r="D280" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>

--- a/meng-spad-quenching/active-quenching/aqc-rev2/aqc-rev2-bom.xlsx
+++ b/meng-spad-quenching/active-quenching/aqc-rev2/aqc-rev2-bom.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="aqc_rev2_bom" localSheetId="0">Sheet1!$B$4:$F$88</definedName>
+    <definedName name="aqc_rev2_bom" localSheetId="0">Sheet1!$B$4:$F$87</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="347">
   <si>
     <t>Value</t>
   </si>
@@ -224,9 +224,6 @@
     <t>IC22</t>
   </si>
   <si>
-    <t>MAX572X</t>
-  </si>
-  <si>
     <t>TSSOP20</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>R0603</t>
   </si>
   <si>
-    <t>L2</t>
-  </si>
-  <si>
     <t>PE-0603FB601ST</t>
   </si>
   <si>
@@ -362,9 +356,6 @@
     <t>R48</t>
   </si>
   <si>
-    <t>1k41</t>
-  </si>
-  <si>
     <t>R54</t>
   </si>
   <si>
@@ -398,9 +389,6 @@
     <t>MCU_RST</t>
   </si>
   <si>
-    <t>E-SWITCH-TL3305AF160QG</t>
-  </si>
-  <si>
     <t>MMBTH10</t>
   </si>
   <si>
@@ -413,9 +401,6 @@
     <t>TP_VSCOPE</t>
   </si>
   <si>
-    <t>JOHNSON-129-0701-30X</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -431,27 +416,18 @@
     <t>SN65EPT22DGK</t>
   </si>
   <si>
-    <t>SOP65P490X110-8N</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
     <t>SN65EPT21DGK</t>
   </si>
   <si>
-    <t>J502-ND-142-0711-871/876</t>
-  </si>
-  <si>
     <t>KEYSTONE-7774</t>
   </si>
   <si>
     <t>X8</t>
   </si>
   <si>
-    <t>PN61729-S</t>
-  </si>
-  <si>
     <t>XTAL1</t>
   </si>
   <si>
@@ -530,9 +506,6 @@
     <t>L9, L11</t>
   </si>
   <si>
-    <t>L7, L8, L10</t>
-  </si>
-  <si>
     <t>LED1, LED2</t>
   </si>
   <si>
@@ -602,9 +575,6 @@
     <t>TP2, TP3, TP4, TP5, TP7, TP9, TP11, TP12, TP13, TP23</t>
   </si>
   <si>
-    <t>BOM #</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -656,9 +626,6 @@
     <t>Note: Cost is with MIT negotiated price, approx. price break included.</t>
   </si>
   <si>
-    <t>aqc-rev2 BOM</t>
-  </si>
-  <si>
     <t>CAP CER 10000PF 25V X7R 0402</t>
   </si>
   <si>
@@ -830,9 +797,6 @@
     <t>LT1711CMS8#PBF-ND</t>
   </si>
   <si>
-    <t>BSS806N H6327CT-ND</t>
-  </si>
-  <si>
     <t>MMBTH81CT-ND</t>
   </si>
   <si>
@@ -906,6 +870,222 @@
   </si>
   <si>
     <t>Reference Designators</t>
+  </si>
+  <si>
+    <t>BSS806NH6327XTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 20V 2.3A SOT23</t>
+  </si>
+  <si>
+    <t>TRANSISTOR RF PNP SOT-23</t>
+  </si>
+  <si>
+    <t>RES SMD 150 OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>RES SMD 0 OHM JUMPER 1/10W 0603</t>
+  </si>
+  <si>
+    <t>1/10W</t>
+  </si>
+  <si>
+    <t>IRLML6402PBFCT-ND</t>
+  </si>
+  <si>
+    <t>MOSFET P-CH 20V 3.7A SOT-23</t>
+  </si>
+  <si>
+    <t>RES SMD 49.9 OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>1/8W</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>8VSSOP</t>
+  </si>
+  <si>
+    <t>SMA-SMT</t>
+  </si>
+  <si>
+    <t>RES SMD 470 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>TRANS VHF/UHF NPN 25V SOT-23</t>
+  </si>
+  <si>
+    <t>J571-ND</t>
+  </si>
+  <si>
+    <t>CONN JACK TEST SHIELD HORIZONTAL</t>
+  </si>
+  <si>
+    <t>BUFFER DUAL LVPECL 3.3V 8VSSOP</t>
+  </si>
+  <si>
+    <t>IC XLATR DIFF PECL/LVDS 8VSSOP</t>
+  </si>
+  <si>
+    <t>CONN SMA RCPT STR 50OHM EDGE MNT</t>
+  </si>
+  <si>
+    <t>36-7774-ND</t>
+  </si>
+  <si>
+    <t>TERM SCREW 4-40 4 PIN PCB RA</t>
+  </si>
+  <si>
+    <t>609-1039-ND</t>
+  </si>
+  <si>
+    <t>CONN RCPT USB TYPE B R/A PCB</t>
+  </si>
+  <si>
+    <t>61729-0010BLF</t>
+  </si>
+  <si>
+    <t>490-11071-1-ND</t>
+  </si>
+  <si>
+    <t>MCP4725A0T-E/CHCT-ND</t>
+  </si>
+  <si>
+    <t>IC DAC 12BIT W/I2C SOT23A-6</t>
+  </si>
+  <si>
+    <t>EG5350CT-ND</t>
+  </si>
+  <si>
+    <t>SWITCH TACTILE SPST-NO 50MA 12V</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>P22.0LCT-ND</t>
+  </si>
+  <si>
+    <t>RES SMD 22 OHM 1% 1/10W 0402</t>
+  </si>
+  <si>
+    <t>Qty. To Order</t>
+  </si>
+  <si>
+    <t>aqc-rev2 BOM on 9/26/2017</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>497-11882-1-ND</t>
+  </si>
+  <si>
+    <t>TVS DIODE 5.25VWM 17VC SOT23-6</t>
+  </si>
+  <si>
+    <t>Cost/Order</t>
+  </si>
+  <si>
+    <t>(Estimate)</t>
+  </si>
+  <si>
+    <t>296-41699-1-ND</t>
+  </si>
+  <si>
+    <t>IC OPAMP GP 3MHZ RRO SOT23-5</t>
+  </si>
+  <si>
+    <t>1014-1015-ND</t>
+  </si>
+  <si>
+    <t>MOSFET 4P-CH 10.6V 14SOIC</t>
+  </si>
+  <si>
+    <t>10.6V</t>
+  </si>
+  <si>
+    <t>MOSFET 4N-CH 10.6V 14SOIC</t>
+  </si>
+  <si>
+    <t>1014-1013-ND</t>
+  </si>
+  <si>
+    <t>MAX5725BAUP+-ND</t>
+  </si>
+  <si>
+    <t>MAX572(3/4/5)</t>
+  </si>
+  <si>
+    <t>IC DAC 12BIT SPI/SRL 8CH 20TSSOP</t>
+  </si>
+  <si>
+    <t>(2x or price break)</t>
+  </si>
+  <si>
+    <t>LM1117IMPX-3.3/NOPBCT-ND</t>
+  </si>
+  <si>
+    <t>IC REG LIN 3.3V 800MA SOT223-4</t>
+  </si>
+  <si>
+    <t>553-2384-1-ND</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 600 OHM 0603 1LN</t>
+  </si>
+  <si>
+    <t>500mA</t>
+  </si>
+  <si>
+    <t>SRF0703-820MCT-ND</t>
+  </si>
+  <si>
+    <t>INDUCT ARRAY 2 COIL 82UH SMD</t>
+  </si>
+  <si>
+    <t>430mA</t>
+  </si>
+  <si>
+    <t>L2, L7, L8, L10</t>
+  </si>
+  <si>
+    <t>240-2551-1-ND</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 1 KOHM 0805 1LN</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>374-1041-1-ND</t>
+  </si>
+  <si>
+    <t>RELAY RF SPST 500MA 5V</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD100RCT-ND</t>
+  </si>
+  <si>
+    <t>1k4</t>
+  </si>
+  <si>
+    <t>RES SMD 1.4K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>311-1.40KHRCT-ND</t>
   </si>
 </sst>
 </file>
@@ -915,7 +1095,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,8 +1126,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,8 +1145,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -983,24 +1174,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,134 +1492,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>203</v>
+        <v>311</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G4" t="s">
-        <v>206</v>
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="H4" s="1">
-        <v>0.09</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" s="4">
         <f>H4*I4</f>
-        <v>0.18</v>
+        <v>1.24E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="7">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M35" si="0">H4*L4</f>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+1</f>
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" t="s">
-        <v>205</v>
+        <v>193</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="H5" s="1">
         <v>5.5999999999999999E-3</v>
@@ -1418,32 +1653,37 @@
         <v>16</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" ref="J5:J68" si="0">H5*I5</f>
+        <f t="shared" ref="J5:J67" si="1">H5*I5</f>
         <v>8.9599999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="7"/>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A69" si="1">A5+1</f>
+        <f t="shared" ref="A6:A69" si="2">A5+1</f>
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="H6" s="1">
         <v>1.2E-2</v>
@@ -1452,32 +1692,37 @@
         <v>16</v>
       </c>
       <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.192</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5">
         <f t="shared" si="0"/>
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
+        <v>202</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -1486,35 +1731,42 @@
         <v>2</v>
       </c>
       <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="H8" s="1">
         <v>0.95</v>
@@ -1523,16 +1775,21 @@
         <v>2</v>
       </c>
       <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5">
         <f t="shared" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B9" t="s">
@@ -1542,16 +1799,16 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>223</v>
+        <v>213</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="H9" s="1">
         <v>0.09</v>
@@ -1560,32 +1817,37 @@
         <v>1</v>
       </c>
       <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5">
         <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G10" t="s">
-        <v>222</v>
+        <v>210</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="H10" s="1">
         <v>0.39</v>
@@ -1594,32 +1856,37 @@
         <v>2</v>
       </c>
       <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="5">
         <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" t="s">
-        <v>225</v>
+        <v>215</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="H11" s="1">
         <v>0.09</v>
@@ -1628,32 +1895,37 @@
         <v>2</v>
       </c>
       <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="5">
         <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" t="s">
-        <v>220</v>
+        <v>208</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="H12" s="1">
         <v>0.35</v>
@@ -1662,32 +1934,37 @@
         <v>1</v>
       </c>
       <c r="J12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="5">
         <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" t="s">
-        <v>227</v>
+        <v>217</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="H13" s="1">
         <v>0.16</v>
@@ -1696,32 +1973,37 @@
         <v>2</v>
       </c>
       <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5">
         <f t="shared" si="0"/>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" t="s">
-        <v>210</v>
+        <v>198</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="H14" s="1">
         <v>1.4E-2</v>
@@ -1730,13 +2012,18 @@
         <v>12</v>
       </c>
       <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="5">
         <f t="shared" si="0"/>
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B15" t="s">
@@ -1746,16 +2033,16 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E15" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G15" t="s">
-        <v>229</v>
+        <v>219</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="H15" s="1">
         <v>0.09</v>
@@ -1764,32 +2051,37 @@
         <v>1</v>
       </c>
       <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="5">
         <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" t="s">
-        <v>231</v>
+        <v>221</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="H16" s="1">
         <v>0.09</v>
@@ -1798,32 +2090,37 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="5">
         <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" t="s">
-        <v>201</v>
+        <v>189</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="H17" s="1">
         <v>3.3000000000000002E-2</v>
@@ -1832,32 +2129,37 @@
         <v>32</v>
       </c>
       <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.056</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="5">
         <f t="shared" si="0"/>
-        <v>1.056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" t="s">
-        <v>233</v>
+        <v>223</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="H18" s="1">
         <v>6.4000000000000001E-2</v>
@@ -1866,32 +2168,37 @@
         <v>6</v>
       </c>
       <c r="J18" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="5">
         <f t="shared" si="0"/>
-        <v>0.38400000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G19" t="s">
-        <v>237</v>
+        <v>225</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="H19" s="1">
         <v>0.32</v>
@@ -1900,32 +2207,37 @@
         <v>3</v>
       </c>
       <c r="J19" s="4">
+        <f t="shared" si="1"/>
+        <v>0.96</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="5">
         <f t="shared" si="0"/>
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" t="s">
-        <v>238</v>
+        <v>228</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="H20" s="1">
         <v>0.25</v>
@@ -1934,32 +2246,37 @@
         <v>4</v>
       </c>
       <c r="J20" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" t="s">
-        <v>240</v>
+        <v>230</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="H21" s="1">
         <v>1.25</v>
@@ -1968,16 +2285,21 @@
         <v>5</v>
       </c>
       <c r="J21" s="4">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="5">
         <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B22" t="s">
@@ -1987,16 +2309,16 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
-      </c>
-      <c r="G22" t="s">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="H22" s="1">
         <v>1.65</v>
@@ -2005,35 +2327,40 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
+        <f t="shared" si="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="5">
         <f t="shared" si="0"/>
-        <v>1.65</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="H23" s="1">
         <v>0.63</v>
@@ -2042,32 +2369,37 @@
         <v>2</v>
       </c>
       <c r="J23" s="4">
+        <f t="shared" si="1"/>
+        <v>1.26</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="5">
         <f t="shared" si="0"/>
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
-      </c>
-      <c r="G24" t="s">
-        <v>248</v>
+        <v>238</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="H24" s="1">
         <v>0.22900000000000001</v>
@@ -2076,32 +2408,37 @@
         <v>6</v>
       </c>
       <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="5">
         <f t="shared" si="0"/>
-        <v>1.3740000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E25" t="s">
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>251</v>
-      </c>
-      <c r="G25" t="s">
-        <v>250</v>
+        <v>240</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="H25" s="1">
         <v>2.2999999999999998</v>
@@ -2110,32 +2447,37 @@
         <v>2</v>
       </c>
       <c r="J25" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="5">
         <f t="shared" si="0"/>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>254</v>
-      </c>
-      <c r="G26" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="H26" s="1">
         <v>8.2899999999999991</v>
@@ -2144,32 +2486,37 @@
         <v>2</v>
       </c>
       <c r="J26" s="4">
+        <f t="shared" si="1"/>
+        <v>16.579999999999998</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="5">
         <f t="shared" si="0"/>
-        <v>16.579999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E27" t="s">
         <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>256</v>
-      </c>
-      <c r="G27" t="s">
-        <v>255</v>
+        <v>245</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="H27" s="1">
         <v>0.36</v>
@@ -2178,13 +2525,18 @@
         <v>4</v>
       </c>
       <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>1.44</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="5">
         <f t="shared" si="0"/>
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B28" t="s">
@@ -2194,16 +2546,16 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F28" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="H28" s="1">
         <v>19.36</v>
@@ -2212,32 +2564,37 @@
         <v>1</v>
       </c>
       <c r="J28" s="4">
+        <f t="shared" si="1"/>
+        <v>19.36</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="5">
         <f t="shared" si="0"/>
-        <v>19.36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>277</v>
-      </c>
-      <c r="G29" t="s">
-        <v>276</v>
+        <v>265</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="H29" s="1">
         <v>5.14</v>
@@ -2246,13 +2603,18 @@
         <v>1</v>
       </c>
       <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>5.14</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="5">
         <f t="shared" si="0"/>
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -2262,16 +2624,16 @@
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
-      </c>
-      <c r="G30" t="s">
-        <v>258</v>
+        <v>266</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="H30" s="1">
         <v>0.5</v>
@@ -2280,32 +2642,37 @@
         <v>1</v>
       </c>
       <c r="J30" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="5">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" t="s">
-        <v>279</v>
+        <v>268</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="H31" s="1">
         <v>0.77</v>
@@ -2314,13 +2681,18 @@
         <v>2</v>
       </c>
       <c r="J31" s="4">
+        <f t="shared" si="1"/>
+        <v>1.54</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="5">
         <f t="shared" si="0"/>
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B32" t="s">
@@ -2330,16 +2702,16 @@
         <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
-      </c>
-      <c r="G32" t="s">
-        <v>282</v>
+        <v>271</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="H32" s="1">
         <v>3.13</v>
@@ -2348,13 +2720,18 @@
         <v>1</v>
       </c>
       <c r="J32" s="4">
+        <f t="shared" si="1"/>
+        <v>3.13</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="5">
         <f t="shared" si="0"/>
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B33" t="s">
@@ -2364,16 +2741,16 @@
         <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" t="s">
-        <v>259</v>
+        <v>272</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="H33" s="1">
         <v>0.38</v>
@@ -2382,13 +2759,18 @@
         <v>1</v>
       </c>
       <c r="J33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="5">
         <f t="shared" si="0"/>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B34" t="s">
@@ -2398,16 +2780,16 @@
         <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G34" t="s">
-        <v>260</v>
+        <v>273</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="H34" s="1">
         <v>4.4000000000000004</v>
@@ -2416,39 +2798,62 @@
         <v>1</v>
       </c>
       <c r="J34" s="4">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="5">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.63600000000000001</v>
+      </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35" s="4">
+        <f t="shared" si="1"/>
+        <v>1.272</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <v>10</v>
+      </c>
+      <c r="M35" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B36" t="s">
@@ -2458,23 +2863,41 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.46200000000000002</v>
+      </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>10</v>
+      </c>
+      <c r="M36" s="5">
+        <f>H36*L36</f>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B37" t="s">
@@ -2483,21 +2906,42 @@
       <c r="C37" t="s">
         <v>52</v>
       </c>
+      <c r="D37" t="s">
+        <v>321</v>
+      </c>
       <c r="E37" t="s">
         <v>53</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" ref="M37:M87" si="3">H37*L37</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B38" t="s">
@@ -2506,21 +2950,42 @@
       <c r="C38" t="s">
         <v>55</v>
       </c>
+      <c r="D38" t="s">
+        <v>321</v>
+      </c>
       <c r="E38" t="s">
         <v>53</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="1">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <v>2</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B39" t="s">
@@ -2530,1202 +2995,1774 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G39" s="7"/>
       <c r="H39" s="1"/>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>58</v>
       </c>
       <c r="C40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" t="s">
         <v>59</v>
       </c>
-      <c r="D40" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="1"/>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6.67</v>
+      </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.67</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <v>2</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="3"/>
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
         <v>61</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" t="s">
         <v>62</v>
       </c>
-      <c r="D41" t="s">
-        <v>213</v>
-      </c>
-      <c r="E41" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="1"/>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.97</v>
+      </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.97</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2</v>
+      </c>
+      <c r="M41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
         <v>64</v>
       </c>
-      <c r="E42" t="s">
-        <v>65</v>
-      </c>
+      <c r="G42" s="7"/>
       <c r="H42" s="1"/>
       <c r="I42">
         <v>2</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" s="7">
+        <v>100</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
         <v>66</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D44" t="s">
+        <v>335</v>
+      </c>
+      <c r="E44" t="s">
         <v>67</v>
       </c>
-      <c r="E43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B44" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" s="1"/>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.67500000000000004</v>
+      </c>
       <c r="I44">
         <v>3</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.0250000000000004</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <v>10</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="3"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>339</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.104</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" s="7">
+        <v>50</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>71</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="1"/>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" t="s">
+        <v>231</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.46</v>
+      </c>
       <c r="I47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>72</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>261</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="1"/>
       <c r="I48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
       <c r="E49" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" t="s">
+        <v>277</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
         <v>75</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>166</v>
       </c>
       <c r="C50" t="s">
         <v>76</v>
       </c>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
       <c r="E50" t="s">
         <v>27</v>
       </c>
-      <c r="G50" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" s="1"/>
+      <c r="F50" t="s">
+        <v>282</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.44</v>
+      </c>
       <c r="I50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.4E-2</v>
+      </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" t="s">
-        <v>265</v>
-      </c>
-      <c r="H52" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.4E-2</v>
+      </c>
       <c r="I52">
         <v>2</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>202</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
       <c r="I53">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>279</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.01</v>
+      </c>
       <c r="I54">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
-        <v>65</v>
-      </c>
-      <c r="G55" t="s">
-        <v>268</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G55" s="7"/>
       <c r="H55" s="1"/>
       <c r="I55">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>65</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F56" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="1"/>
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" t="s">
+        <v>342</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I57">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <v>100</v>
+      </c>
+      <c r="M57" s="5">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J56" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" t="s">
-        <v>263</v>
-      </c>
-      <c r="H57" s="1"/>
-      <c r="I57">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>288</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I58">
         <v>9</v>
       </c>
-      <c r="J57" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>182</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="J58" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15300000000000002</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
         <v>94</v>
       </c>
-      <c r="E58" t="s">
-        <v>65</v>
-      </c>
-      <c r="H58" s="1"/>
-      <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="J58" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>178</v>
-      </c>
-      <c r="C59" t="s">
-        <v>101</v>
+      <c r="D59" t="s">
+        <v>284</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
-      </c>
-      <c r="G59" t="s">
-        <v>266</v>
-      </c>
-      <c r="H59" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>289</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H59" s="1">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="I59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>344</v>
+      </c>
+      <c r="D60" t="s">
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G60" t="s">
-        <v>264</v>
-      </c>
-      <c r="H60" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>345</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H60" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="I60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60" s="7">
+        <v>100</v>
+      </c>
+      <c r="M60" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B61" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" t="s">
         <v>104</v>
       </c>
-      <c r="C61" t="s">
-        <v>105</v>
-      </c>
       <c r="E61" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G61" s="7"/>
       <c r="H61" s="1"/>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G62" s="7"/>
       <c r="H62" s="1"/>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G63" s="7"/>
       <c r="H63" s="1"/>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="M63" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G64" s="7"/>
       <c r="H64" s="1"/>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G65" s="7"/>
       <c r="H65" s="1"/>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="D66" t="s">
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
+        <v>290</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="I66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J66" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
-      </c>
-      <c r="G67" t="s">
-        <v>267</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G67" s="7"/>
       <c r="H67" s="1"/>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G68" s="7"/>
       <c r="H68" s="1"/>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="J68:J87" si="4">H68*I68</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="7"/>
+      <c r="M68" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="1"/>
       <c r="I69">
         <v>2</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" ref="J69:J88" si="2">H69*I69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69" s="7"/>
+      <c r="M69" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" ref="A70:A88" si="3">A69+1</f>
+        <f t="shared" ref="A70:A87" si="5">A69+1</f>
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E70" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G70" s="7"/>
       <c r="H70" s="1"/>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="7"/>
+      <c r="M70" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="1"/>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="7"/>
+      <c r="M71" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G72" s="7"/>
       <c r="H72" s="1"/>
       <c r="I72">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E73" t="s">
-        <v>65</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G73" s="7"/>
       <c r="H73" s="1"/>
       <c r="I73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J73" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L73" s="7"/>
+      <c r="M73" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>65</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G74" s="7"/>
       <c r="H74" s="1"/>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
         <v>111</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>202</v>
+      </c>
+      <c r="E75" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" t="s">
+        <v>341</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H75" s="1">
+        <v>8.93</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75" s="4">
+        <f t="shared" si="4"/>
+        <v>17.86</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>4</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="3"/>
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
         <v>112</v>
       </c>
-      <c r="E75" t="s">
+      <c r="C76" t="s">
         <v>113</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75">
+      <c r="D76" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" t="s">
+        <v>306</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
-      <c r="J75" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="J76" s="4">
+        <f t="shared" si="4"/>
+        <v>0.17</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
         <v>114</v>
       </c>
-      <c r="E76" t="s">
-        <v>195</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="3"/>
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" t="s">
+        <v>291</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="L77" s="7"/>
+      <c r="M77" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
         <v>115</v>
       </c>
-      <c r="C77" t="s">
-        <v>116</v>
-      </c>
-      <c r="E77" t="s">
-        <v>117</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" t="s">
-        <v>118</v>
+      <c r="D78" t="s">
+        <v>202</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>269</v>
+        <v>185</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J78" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" t="s">
+        <v>202</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>10</v>
+      </c>
+      <c r="J79" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H80" s="1">
+        <v>12.08</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" s="4">
+        <f t="shared" si="4"/>
+        <v>12.08</v>
+      </c>
+      <c r="L80" s="7"/>
+      <c r="M80" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
         <v>119</v>
       </c>
-      <c r="E79" t="s">
-        <v>195</v>
-      </c>
-      <c r="G79" t="s">
-        <v>270</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79">
-        <v>11</v>
-      </c>
-      <c r="J79" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="3"/>
-        <v>77</v>
-      </c>
-      <c r="B80" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80" t="s">
-        <v>213</v>
-      </c>
-      <c r="G80" t="s">
-        <v>213</v>
-      </c>
-      <c r="H80" s="1"/>
-      <c r="I80">
-        <v>10</v>
-      </c>
-      <c r="J80" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81" t="s">
         <v>120</v>
       </c>
-      <c r="C81" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" t="s">
-        <v>122</v>
-      </c>
-      <c r="H81" s="1"/>
+      <c r="F81" t="s">
+        <v>304</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1.01</v>
+      </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.01</v>
+      </c>
+      <c r="L81" s="7"/>
+      <c r="M81" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>79</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="D82" t="s">
+        <v>202</v>
       </c>
       <c r="E82" t="s">
-        <v>125</v>
-      </c>
-      <c r="H82" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="F82" t="s">
+        <v>294</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3.57</v>
+      </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.57</v>
+      </c>
+      <c r="L82" s="7"/>
+      <c r="M82" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="D83" t="s">
+        <v>202</v>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
-      </c>
-      <c r="G83" t="s">
-        <v>272</v>
-      </c>
-      <c r="H83" s="1"/>
+        <v>286</v>
+      </c>
+      <c r="F83" t="s">
+        <v>295</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3.57</v>
+      </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3.57</v>
+      </c>
+      <c r="L83" s="7"/>
+      <c r="M83" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" t="s">
+        <v>202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" t="s">
+        <v>296</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2.714</v>
+      </c>
+      <c r="I84">
+        <v>5</v>
+      </c>
+      <c r="J84" s="4">
+        <f t="shared" si="4"/>
+        <v>13.57</v>
+      </c>
+      <c r="L84" s="7"/>
+      <c r="M84" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
+      </c>
+      <c r="E85" t="s">
+        <v>185</v>
+      </c>
+      <c r="F85" t="s">
+        <v>298</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" s="4">
+        <f t="shared" si="4"/>
+        <v>0.68</v>
+      </c>
+      <c r="L85" s="7"/>
+      <c r="M85" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
+        <v>301</v>
+      </c>
+      <c r="D86" t="s">
+        <v>202</v>
+      </c>
+      <c r="E86" t="s">
+        <v>185</v>
+      </c>
+      <c r="F86" t="s">
+        <v>300</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4">
+        <f t="shared" si="4"/>
+        <v>0.79</v>
+      </c>
+      <c r="L86" s="7"/>
+      <c r="M86" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" t="s">
+        <v>202</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" t="s">
         <v>129</v>
       </c>
-      <c r="C84" t="s">
-        <v>130</v>
-      </c>
-      <c r="E84" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84" t="s">
-        <v>271</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="3"/>
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C85" t="s">
-        <v>183</v>
-      </c>
-      <c r="E85" t="s">
-        <v>131</v>
-      </c>
-      <c r="G85" t="s">
-        <v>273</v>
-      </c>
-      <c r="H85" s="1"/>
-      <c r="I85">
-        <v>5</v>
-      </c>
-      <c r="J85" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="B86" t="s">
-        <v>168</v>
-      </c>
-      <c r="C86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" t="s">
-        <v>132</v>
-      </c>
-      <c r="H86" s="1"/>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" t="s">
-        <v>134</v>
-      </c>
-      <c r="H87" s="1"/>
+      <c r="G87" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="3"/>
-        <v>85</v>
-      </c>
-      <c r="B88" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" t="s">
-        <v>136</v>
-      </c>
-      <c r="E88" t="s">
-        <v>137</v>
-      </c>
-      <c r="H88" s="1"/>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H91" t="s">
-        <v>197</v>
-      </c>
-      <c r="J91" s="5">
-        <f>SUM(J4:J88)</f>
-        <v>75.433599999999998</v>
+        <f t="shared" si="4"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>187</v>
+      </c>
+      <c r="J90" s="5">
+        <f>SUM(J4:J87)</f>
+        <v>150.77499999999995</v>
+      </c>
+      <c r="M90" s="5">
+        <f>SUM(M4:M87)</f>
+        <v>86.25</v>
       </c>
     </row>
   </sheetData>
